--- a/Teams/MIndful.xlsx
+++ b/Teams/MIndful.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA3029-CAF0-1644-A6FA-E1A26642A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBA68F-AEDE-8C48-955F-3733AF79DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="500" windowWidth="15800" windowHeight="12400" xr2:uid="{4A463EAE-0E64-B443-851D-D1933B0E7F97}"/>
+    <workbookView xWindow="2460" yWindow="500" windowWidth="24360" windowHeight="16220" xr2:uid="{4A463EAE-0E64-B443-851D-D1933B0E7F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Menu</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>MenuDisplay(): void</t>
+  </si>
+  <si>
+    <t>1.The program calls Menu which displays the text for the menu</t>
+  </si>
+  <si>
+    <t>2. The program then reads the user input and calls the activity subclasses based on the menu item chosen.</t>
+  </si>
+  <si>
+    <t>3. Activity is never explicitly callen, only as a base for the subclasses.</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3647C66-2434-AE4E-A837-32670EA727C2}">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -581,7 +590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -589,12 +598,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -603,6 +612,21 @@
       </c>
       <c r="G19" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Teams/MIndful.xlsx
+++ b/Teams/MIndful.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBA68F-AEDE-8C48-955F-3733AF79DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842AD617-6172-3A44-B659-3800920843DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="500" windowWidth="24360" windowHeight="16220" xr2:uid="{4A463EAE-0E64-B443-851D-D1933B0E7F97}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Menu</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>3. Activity is never explicitly callen, only as a base for the subclasses.</t>
+  </si>
+  <si>
+    <t>DisplayStartMessage(): string</t>
+  </si>
+  <si>
+    <t>DisplayEndMessage(): string</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3647C66-2434-AE4E-A837-32670EA727C2}">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -498,13 +504,13 @@
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -520,22 +526,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -543,89 +549,99 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Teams/MIndful.xlsx
+++ b/Teams/MIndful.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842AD617-6172-3A44-B659-3800920843DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D09D8AB-FE47-CC4A-8CB6-59AD2E920AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="500" windowWidth="24360" windowHeight="16220" xr2:uid="{4A463EAE-0E64-B443-851D-D1933B0E7F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Menu</t>
   </si>
@@ -76,12 +77,6 @@
     <t>Breathing</t>
   </si>
   <si>
-    <t>_breatheIn: string</t>
-  </si>
-  <si>
-    <t>_breathOut: string</t>
-  </si>
-  <si>
     <t>Countdown(): string animation</t>
   </si>
   <si>
@@ -97,9 +92,6 @@
     <t>Listing</t>
   </si>
   <si>
-    <t>WriteList():string</t>
-  </si>
-  <si>
     <t>_question: List&lt;string&gt;</t>
   </si>
   <si>
@@ -122,6 +114,12 @@
   </si>
   <si>
     <t>DisplayEndMessage(): string</t>
+  </si>
+  <si>
+    <t>_breatheInOut: string</t>
+  </si>
+  <si>
+    <t>_count: int</t>
   </si>
 </sst>
 </file>
@@ -160,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,16 +166,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,6 +233,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E053E4EF-9D34-91E3-6234-114C753366EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10160000" cy="6832600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +601,7 @@
   <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -511,141 +617,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+      <c r="A5" s="5"/>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
+      <c r="A8" s="5"/>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F27349-2F80-9549-803A-F2A8B8E210E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>